--- a/biology/Botanique/Esplanade_Gaston-Monnerville/Esplanade_Gaston-Monnerville.xlsx
+++ b/biology/Botanique/Esplanade_Gaston-Monnerville/Esplanade_Gaston-Monnerville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'esplanade Gaston-Monnerville est, depuis 2006, une esplanade et un espace vert situé dans le 6e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est située entre la rue Auguste-Comte et le jardin des Grands-Explorateurs Marco-Polo et Cavelier-de-la-Salle.
 Le site est desservi par la ligne 12 à la station de métro Notre-Dame-des-Champs et par la ligne 4 à la station Vavin.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette voie parisienne porte le nom de Gaston Monnerville (1897-1991), un homme politique français du XXe siècle, notamment président du Sénat, dont l'hémicycle est à proximité de l'esplanade[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette voie parisienne porte le nom de Gaston Monnerville (1897-1991), un homme politique français du XXe siècle, notamment président du Sénat, dont l'hémicycle est à proximité de l'esplanade.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite d'une demande de l'Association des amis de Gaston Monnerville, le Conseil de Paris, représenté par Christian Poncelet et Bertrand Delanoë, inaugure le 5 septembre 2006 le renommage de l'ancien jardin Cavelier-de-la-Salle, en son honneur[2]. Le buste en son hommage, érigé sur l'esplanade en 2011, a été conçu par le sculpteur Jacques Canonici et le fondeur Jean-Jacques Avangini[3]. Il est inauguré le 20 décembre 2011 en présence du président du Sénat Jean-Pierre Bel et du maire de Paris Bertrand Delanoë[4].
-Par arrêté municipal en date des 8, 9, 10 et 11 juillet 2019 l'allée ouest de l'esplanade Gaston-Monnerville située 7, place André-Honnorat prend le nom d'« allée Nicole-Fontaine »[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'une demande de l'Association des amis de Gaston Monnerville, le Conseil de Paris, représenté par Christian Poncelet et Bertrand Delanoë, inaugure le 5 septembre 2006 le renommage de l'ancien jardin Cavelier-de-la-Salle, en son honneur. Le buste en son hommage, érigé sur l'esplanade en 2011, a été conçu par le sculpteur Jacques Canonici et le fondeur Jean-Jacques Avangini. Il est inauguré le 20 décembre 2011 en présence du président du Sénat Jean-Pierre Bel et du maire de Paris Bertrand Delanoë.
+Par arrêté municipal en date des 8, 9, 10 et 11 juillet 2019 l'allée ouest de l'esplanade Gaston-Monnerville située 7, place André-Honnorat prend le nom d'« allée Nicole-Fontaine ».
 </t>
         </is>
       </c>
